--- a/inst/extdata/input_files/test4.xlsx
+++ b/inst/extdata/input_files/test4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\quicR\inst\extdata\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\quicR\inst\extdata\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C524189-7D2B-4EC3-BBD5-F16D3BC9BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="159">
   <si>
     <t>User: USER</t>
   </si>
@@ -466,82 +465,49 @@
     <t>ID1: 20240722_r1_GR</t>
   </si>
   <si>
-    <t>1. Dilutions</t>
+    <t>S01</t>
   </si>
   <si>
-    <t>2. Sample IDs</t>
+    <t>S02</t>
   </si>
   <si>
-    <t>Sample_1</t>
+    <t>S03</t>
   </si>
   <si>
-    <t>Sample_2</t>
+    <t>S04</t>
   </si>
   <si>
-    <t>Sample_3</t>
+    <t>S05</t>
   </si>
   <si>
-    <t>Sample_4</t>
+    <t>S06</t>
   </si>
   <si>
-    <t>Sample_5</t>
+    <t>S07</t>
   </si>
   <si>
-    <t>Sample_6</t>
+    <t>S08</t>
   </si>
   <si>
-    <t>Sample_7</t>
+    <t>S09</t>
   </si>
   <si>
-    <t>Sample_8</t>
+    <t>S10</t>
   </si>
   <si>
-    <t>Sample_9</t>
+    <t>S11</t>
   </si>
   <si>
-    <t>Sample_10</t>
+    <t>1. Sample IDs</t>
   </si>
   <si>
-    <t>Sample_11</t>
-  </si>
-  <si>
-    <t>Sample 01</t>
-  </si>
-  <si>
-    <t>Sample 02</t>
-  </si>
-  <si>
-    <t>Sample 03</t>
-  </si>
-  <si>
-    <t>Sample 04</t>
-  </si>
-  <si>
-    <t>Sample 05</t>
-  </si>
-  <si>
-    <t>Sample 06</t>
-  </si>
-  <si>
-    <t>Sample 07</t>
-  </si>
-  <si>
-    <t>Sample 08</t>
-  </si>
-  <si>
-    <t>Sample 09</t>
-  </si>
-  <si>
-    <t>Sample 10</t>
-  </si>
-  <si>
-    <t>Sample 11</t>
+    <t>2. Dilutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,16 +1074,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
     <col min="15" max="15" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1163,7 +1130,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O14" s="16"/>
     </row>
@@ -1212,41 +1179,41 @@
       <c r="A16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="10">
-        <v>1000</v>
+      <c r="B16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="O16" s="18"/>
     </row>
@@ -1254,292 +1221,307 @@
       <c r="A17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1000</v>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1000</v>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1000</v>
+      <c r="B19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="J20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L20" s="11">
-        <v>10000</v>
-      </c>
-      <c r="M20" s="12">
-        <v>10000</v>
+      <c r="B20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="J21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="K21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L21" s="11">
-        <v>10000</v>
-      </c>
-      <c r="M21" s="12">
-        <v>10000</v>
+      <c r="B21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="K22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="M22" s="12">
-        <v>10000</v>
+      <c r="B22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="K23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="L23" s="14">
-        <v>10000</v>
-      </c>
-      <c r="M23" s="15">
-        <v>10000</v>
-      </c>
+      <c r="B23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="O25" s="16"/>
     </row>
@@ -1588,41 +1570,41 @@
       <c r="A27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>169</v>
+      <c r="B27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="10">
+        <v>1000</v>
       </c>
       <c r="O27" s="18"/>
     </row>
@@ -1630,287 +1612,287 @@
       <c r="A28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>169</v>
+      <c r="B28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>169</v>
+      <c r="B29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>169</v>
+      <c r="B30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>169</v>
+      <c r="B31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="L31" s="11">
+        <v>10000</v>
+      </c>
+      <c r="M31" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>169</v>
+      <c r="B32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="L32" s="11">
+        <v>10000</v>
+      </c>
+      <c r="M32" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>169</v>
+      <c r="B33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="L33" s="11">
+        <v>10000</v>
+      </c>
+      <c r="M33" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>169</v>
+      <c r="B34" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="14">
+        <v>10000</v>
+      </c>
+      <c r="M34" s="15">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1920,11 +1902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT76"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ7" workbookViewId="0">
-      <selection activeCell="CW24" sqref="CW24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="CI14" sqref="CI14:CT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,289 +2844,289 @@
         <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>134</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>134</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AL14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AM14" s="2" t="s">
         <v>134</v>
       </c>
       <c r="AN14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AR14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AV14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="AW14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AX14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="AY14" s="2" t="s">
         <v>135</v>
       </c>
       <c r="AZ14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BA14" s="2" t="s">
+      <c r="BC14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BB14" s="2" t="s">
+      <c r="BD14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BC14" s="2" t="s">
+      <c r="BE14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BD14" s="2" t="s">
+      <c r="BF14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BE14" s="2" t="s">
+      <c r="BG14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BF14" s="2" t="s">
+      <c r="BH14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BG14" s="2" t="s">
+      <c r="BI14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BH14" s="2" t="s">
+      <c r="BJ14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="BI14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="BK14" s="2" t="s">
         <v>135</v>
       </c>
       <c r="BL14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BM14" s="2" t="s">
+      <c r="BO14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BN14" s="2" t="s">
+      <c r="BP14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BO14" s="2" t="s">
+      <c r="BQ14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BP14" s="2" t="s">
+      <c r="BR14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BQ14" s="2" t="s">
+      <c r="BS14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BR14" s="2" t="s">
+      <c r="BT14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BS14" s="2" t="s">
+      <c r="BU14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BT14" s="2" t="s">
+      <c r="BV14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="BU14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BV14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="BW14" s="2" t="s">
         <v>135</v>
       </c>
       <c r="BX14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BY14" s="2" t="s">
+      <c r="CA14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BZ14" s="2" t="s">
+      <c r="CB14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CA14" s="2" t="s">
+      <c r="CC14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CB14" s="2" t="s">
+      <c r="CD14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CC14" s="2" t="s">
+      <c r="CE14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="CD14" s="2" t="s">
+      <c r="CF14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="CE14" s="2" t="s">
+      <c r="CG14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="CF14" s="2" t="s">
+      <c r="CH14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="CG14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CH14" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="CI14" s="2" t="s">
         <v>135</v>
       </c>
       <c r="CJ14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="CK14" s="2" t="s">
+      <c r="CM14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="CL14" s="2" t="s">
+      <c r="CN14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CM14" s="2" t="s">
+      <c r="CO14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CN14" s="2" t="s">
+      <c r="CP14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="CO14" s="2" t="s">
+      <c r="CQ14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="CP14" s="2" t="s">
+      <c r="CR14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="CQ14" s="2" t="s">
+      <c r="CS14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="CR14" s="2" t="s">
+      <c r="CT14" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="CS14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT14" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.25">
